--- a/data/languages.xlsx
+++ b/data/languages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/vscode/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD17CFD-6E38-4D5C-B8BC-DCC66B15CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BDD4D-1A17-DB4E-BCB7-8E7129994CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="languages" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="DatiEsterni_1" localSheetId="3" hidden="1">questions!$A$1:$G$5</definedName>
     <definedName name="DatiEsterni_2" localSheetId="2" hidden="1">parameters!$A$1:$G$4</definedName>
     <definedName name="DatiEsterni_3" localSheetId="1" hidden="1">motivations!$A$1:$B$5</definedName>
-    <definedName name="DatiEsterni_4" localSheetId="0" hidden="1">languages!$A$1:$I$4</definedName>
+    <definedName name="DatiEsterni_4" localSheetId="0" hidden="1">languages!$A$1:$I$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="293">
   <si>
     <t>id</t>
   </si>
@@ -202,22 +202,736 @@
     <t>assigned_user_email</t>
   </si>
   <si>
-    <t>sic</t>
-  </si>
-  <si>
-    <t>sicilian</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>italian</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>spanish</t>
+    <t>Sic</t>
+  </si>
+  <si>
+    <t>NCa</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Ptg</t>
+  </si>
+  <si>
+    <t>Rm</t>
+  </si>
+  <si>
+    <t>CGB</t>
+  </si>
+  <si>
+    <t>Grk</t>
+  </si>
+  <si>
+    <t>CyG</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>Afk</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Nor</t>
+  </si>
+  <si>
+    <t>Blg</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Slo</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>Rus</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Wel</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Jap</t>
+  </si>
+  <si>
+    <t>Kor</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Heb</t>
+  </si>
+  <si>
+    <t>Hu</t>
+  </si>
+  <si>
+    <t>KhB</t>
+  </si>
+  <si>
+    <t>Est</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>mMB</t>
+  </si>
+  <si>
+    <t>UdB</t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>EvA</t>
+  </si>
+  <si>
+    <t>EvB</t>
+  </si>
+  <si>
+    <t>Ek</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Uz</t>
+  </si>
+  <si>
+    <t>Kaz</t>
+  </si>
+  <si>
+    <t>Kyr</t>
+  </si>
+  <si>
+    <t>Tur</t>
+  </si>
+  <si>
+    <t>Bur</t>
+  </si>
+  <si>
+    <t>cB</t>
+  </si>
+  <si>
+    <t>wB</t>
+  </si>
+  <si>
+    <t>Wo</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>Lak</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Rib</t>
+  </si>
+  <si>
+    <t>SMX</t>
+  </si>
+  <si>
+    <t>Mus</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Ncs</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>SFM</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Fel</t>
+  </si>
+  <si>
+    <t>PCa</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>FrM</t>
+  </si>
+  <si>
+    <t>Gar</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Cel</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Sav</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Cas</t>
+  </si>
+  <si>
+    <t>Pvi</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>MdL</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>SaG</t>
+  </si>
+  <si>
+    <t>CGA</t>
+  </si>
+  <si>
+    <t>Sicilian</t>
+  </si>
+  <si>
+    <t>Northern Calabrese</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>Calabrian Greek (B)</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Cypriot Greek</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Serbo-Croatian</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>Welsh</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Pashto</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>Cantonese</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Khanty</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Udmurt</t>
+  </si>
+  <si>
+    <t>Yukaghir</t>
+  </si>
+  <si>
+    <t>Even A</t>
+  </si>
+  <si>
+    <t>Even B</t>
+  </si>
+  <si>
+    <t>Evenki</t>
+  </si>
+  <si>
+    <t>Yakut</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>Kyrgyz</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Buryat</t>
+  </si>
+  <si>
+    <t>Central Basque</t>
+  </si>
+  <si>
+    <t>Western Basque</t>
+  </si>
+  <si>
+    <t>Wolof</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>Archi</t>
+  </si>
+  <si>
+    <t>Trapani</t>
+  </si>
+  <si>
+    <t>Ribera</t>
+  </si>
+  <si>
+    <t>Mussomeli</t>
+  </si>
+  <si>
+    <t>Aidone</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Ragusa</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>San Filippo del Mela</t>
+  </si>
+  <si>
+    <t>Reggio Calabria</t>
+  </si>
+  <si>
+    <t>Nicastro</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
+    <t>Cutro</t>
+  </si>
+  <si>
+    <t>Verbicaro</t>
+  </si>
+  <si>
+    <t>Francavilla in Sinni</t>
+  </si>
+  <si>
+    <t>Felitto</t>
+  </si>
+  <si>
+    <t>Palma Campania</t>
+  </si>
+  <si>
+    <t>Santa Maria Capua Vetere</t>
+  </si>
+  <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Taranto</t>
+  </si>
+  <si>
+    <t>Mesagne</t>
+  </si>
+  <si>
+    <t>Cellino San Marco</t>
+  </si>
+  <si>
+    <t>Botrugno</t>
+  </si>
+  <si>
+    <t>Teramo</t>
+  </si>
+  <si>
+    <t>Savignano sul Rubicone</t>
+  </si>
+  <si>
+    <t>Reggio Emilia</t>
+  </si>
+  <si>
+    <t>Correggio</t>
+  </si>
+  <si>
+    <t>Novellara</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Casalmaggiore</t>
+  </si>
+  <si>
+    <t>Porto Viro</t>
+  </si>
+  <si>
+    <t>Chioggia</t>
+  </si>
+  <si>
+    <t>Motta di Livenza</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>Trieste</t>
+  </si>
+  <si>
+    <t>Salento Greek</t>
+  </si>
+  <si>
+    <t>Calabrian Greek (A)</t>
+  </si>
+  <si>
+    <t>Franca Ciantia</t>
+  </si>
+  <si>
+    <t>Cristina Guardiano, Vincenzo Stalfieri</t>
+  </si>
+  <si>
+    <t>Vincenzo Stalfieri</t>
+  </si>
+  <si>
+    <t>Luigi Andriani</t>
+  </si>
+  <si>
+    <t>Vincenzo Stalfieri, Rosarita Colavito</t>
+  </si>
+  <si>
+    <t>Ileana Canfora, Francesco Sardaro</t>
+  </si>
+  <si>
+    <t>Alberto De Giorgi, Lucrezia Garofalo</t>
+  </si>
+  <si>
+    <t>Martina Vezzosi</t>
+  </si>
+  <si>
+    <t>Gaia Sorge</t>
+  </si>
+  <si>
+    <t>Danilo Candeliere, Flavio Vallone</t>
+  </si>
+  <si>
+    <t>Franco Fanciullo</t>
+  </si>
+  <si>
+    <t>Cristina Guardiano</t>
+  </si>
+  <si>
+    <t>Cristina Guardiano, Giovanni Roversi</t>
+  </si>
+  <si>
+    <t>Mauro Casarini, Gigliola Gasparini, Nadia Sabattini, Livio Vezzani</t>
+  </si>
+  <si>
+    <t>Alessandra Anastasio</t>
+  </si>
+  <si>
+    <t>Mariangela Cerullo</t>
+  </si>
+  <si>
+    <t>Umberto Giangreco, Domenico Stalfieri, Vincenzo Stalfieri</t>
+  </si>
+  <si>
+    <t>Frattamaggiore</t>
+  </si>
+  <si>
+    <t>Gelsomina Ponticelli</t>
+  </si>
+  <si>
+    <t>Luigi Ponticelli, Raffaella Giametta, Luca Sol</t>
+  </si>
+  <si>
+    <t>Gargano</t>
+  </si>
+  <si>
+    <t>Angelapia Massaro</t>
+  </si>
+  <si>
+    <t>Marino Malagnino</t>
+  </si>
+  <si>
+    <t>Andrea Ceolin</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>Rosalinda Marcon</t>
+  </si>
+  <si>
+    <t>Silvio Cruschina</t>
+  </si>
+  <si>
+    <t>Giulio Costanzo, Simone Monteleone</t>
+  </si>
+  <si>
+    <t>Bianca Ferrari, Pierluigi Ferrari</t>
+  </si>
+  <si>
+    <t>Ilaria Maria Sole Della Corte</t>
+  </si>
+  <si>
+    <t>Michelina Malinconico</t>
+  </si>
+  <si>
+    <t>Marco Longhin</t>
+  </si>
+  <si>
+    <t>Renzo Cremona</t>
+  </si>
+  <si>
+    <t>Cristina Fereoli</t>
+  </si>
+  <si>
+    <t>Giulia Frabbris</t>
+  </si>
+  <si>
+    <t>Giulia Fabbris</t>
+  </si>
+  <si>
+    <t>Assunta Cicciarella, Francesco Guardiano, Pino Gulino</t>
+  </si>
+  <si>
+    <t>Amerigo Caridi, Carmelo Giuseppe Nucera</t>
+  </si>
+  <si>
+    <t>Marco Bagni, Denis Ferretti</t>
+  </si>
+  <si>
+    <t>Michela Cambria</t>
+  </si>
+  <si>
+    <t>Roberta Fanara</t>
+  </si>
+  <si>
+    <t>Salvatore e Antonio Cambria</t>
+  </si>
+  <si>
+    <t>Sant'Angelo Muxaro</t>
+  </si>
+  <si>
+    <t>Maria Campo</t>
+  </si>
+  <si>
+    <t>Giuseppina Silvestri</t>
+  </si>
+  <si>
+    <t>S. Prisco</t>
+  </si>
+  <si>
+    <t>Maurizio Benvenuti, Luigi Mercuriali, Donatella Strocchi</t>
+  </si>
+  <si>
+    <t>Giuseppe e Leonardo Barbalinardo, Fabio Guarini</t>
+  </si>
+  <si>
+    <t>Iara Mantenuto, Daniele Pettinari</t>
+  </si>
+  <si>
+    <t>Francesca Di Grazia, Roberto Galìa, Fabio Lavecchia</t>
+  </si>
+  <si>
+    <t>Andrea Ceolin, Vincenzo Stalfieri</t>
+  </si>
+  <si>
+    <t>Paola Crisma, Andrea Sgarro</t>
   </si>
 </sst>
 </file>
@@ -253,9 +967,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -396,18 +1116,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}" name="languages" displayName="languages" ref="A1:I4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}" name="languages" displayName="languages" ref="A1:I99" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I99" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{85D3913A-4C11-4A90-8B64-A1E899E80067}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CF6E9D61-2619-43FB-9CD7-73D9B4D0C4AE}" uniqueName="2" name="name_full" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{85D3913A-4C11-4A90-8B64-A1E899E80067}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CF6E9D61-2619-43FB-9CD7-73D9B4D0C4AE}" uniqueName="2" name="name_full" queryTableFieldId="2" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{4EF19EA2-9C2D-4DBC-9616-F0F90B70DEBC}" uniqueName="3" name="position" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{569493CA-2A58-44E9-B82E-C184B545F7F9}" uniqueName="4" name="grp" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9CAEA168-496C-497C-8268-94C2C148C888}" uniqueName="5" name="isocode" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5EE5FAA6-3FFC-48F1-A8A5-C3EAC80F1A2E}" uniqueName="6" name="glottocode" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6267B2BF-D48B-4694-82A9-AE9B2EA9F8E7}" uniqueName="7" name="informant" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D83AA30F-ECB3-498A-BCB5-48554E351CAD}" uniqueName="8" name="supervisor" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{AE8AA8EE-0214-4139-B2AB-E1D7510F9A18}" uniqueName="9" name="assigned_user_email" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{569493CA-2A58-44E9-B82E-C184B545F7F9}" uniqueName="4" name="grp" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{9CAEA168-496C-497C-8268-94C2C148C888}" uniqueName="5" name="isocode" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{5EE5FAA6-3FFC-48F1-A8A5-C3EAC80F1A2E}" uniqueName="6" name="glottocode" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{6267B2BF-D48B-4694-82A9-AE9B2EA9F8E7}" uniqueName="7" name="informant" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D83AA30F-ECB3-498A-BCB5-48554E351CAD}" uniqueName="8" name="supervisor" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{AE8AA8EE-0214-4139-B2AB-E1D7510F9A18}" uniqueName="9" name="assigned_user_email" queryTableFieldId="9" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -417,8 +1137,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}" name="motivations" displayName="motivations" ref="A1:B5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,12 +1148,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}" name="parameters" displayName="parameters" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G4" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{943E732B-797E-4A4E-AE88-4AC36D5AA185}" uniqueName="4" name="position" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C3AD8CCC-CD6B-4003-A8E2-AA344034E95B}" uniqueName="5" name="is_active" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{CFC3CDD1-EF4F-4F41-869A-AD1039F6927F}" uniqueName="7" name="warning_default" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -444,12 +1164,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}" name="questions" displayName="questions" ref="A1:G5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{364735F5-D972-427D-BA27-3715C335102D}" uniqueName="7" name="is_stop_question" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -719,24 +1439,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF56EEA-B88E-4126-9602-35B513B936AC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,91 +1487,1355 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
+      <c r="B2" t="s">
+        <v>147</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>290</v>
+      </c>
+      <c r="H60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>281</v>
+      </c>
+      <c r="H61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>277</v>
+      </c>
+      <c r="H66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>249</v>
+      </c>
+      <c r="H67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>282</v>
+      </c>
+      <c r="H68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="G69" t="s">
+        <v>278</v>
+      </c>
+      <c r="H69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>268</v>
+      </c>
+      <c r="H70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>250</v>
+      </c>
+      <c r="H71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="G72" t="s">
+        <v>265</v>
+      </c>
+      <c r="H72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="G73" t="s">
+        <v>285</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>257</v>
+      </c>
+      <c r="H74" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="G75" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
+        <v>271</v>
+      </c>
+      <c r="H76" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s">
+        <v>286</v>
+      </c>
+      <c r="H77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>258</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s">
+        <v>260</v>
+      </c>
+      <c r="H78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>244</v>
+      </c>
+      <c r="H81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
+        <v>288</v>
+      </c>
+      <c r="H82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s">
+        <v>263</v>
+      </c>
+      <c r="H83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s">
+        <v>251</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>247</v>
+      </c>
+      <c r="H85" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s">
+        <v>287</v>
+      </c>
+      <c r="H87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="G88" t="s">
+        <v>279</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>274</v>
+      </c>
+      <c r="H91" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="G92" t="s">
+        <v>265</v>
+      </c>
+      <c r="H92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="G93" t="s">
+        <v>275</v>
+      </c>
+      <c r="H93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="G94" t="s">
+        <v>273</v>
+      </c>
+      <c r="H94" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="G95" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="H96" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="G97" t="s">
+        <v>292</v>
+      </c>
+      <c r="H97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -866,13 +2852,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -880,35 +2866,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -926,18 +2912,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -960,14 +2946,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
@@ -976,21 +2962,21 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3">
@@ -999,21 +2985,21 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4">
@@ -1022,7 +3008,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
@@ -1043,18 +3029,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +3063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +3169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/languages.xlsx
+++ b/data/languages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/vscode/progetto_lingue_2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BDD4D-1A17-DB4E-BCB7-8E7129994CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FDC0D-0304-FC43-86F6-77A571612143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,9 +544,6 @@
     <t>Icelandic</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Norwegian</t>
   </si>
   <si>
@@ -932,6 +929,9 @@
   </si>
   <si>
     <t>Paola Crisma, Andrea Sgarro</t>
+  </si>
+  <si>
+    <t>Faroese</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -975,7 +975,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1441,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF56EEA-B88E-4126-9602-35B513B936AC}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1721,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1733,7 +1732,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1744,7 +1743,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1755,7 +1754,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1766,7 +1765,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1777,7 +1776,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1788,7 +1787,7 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1799,7 +1798,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1810,7 +1809,7 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1821,7 +1820,7 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1832,7 +1831,7 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1843,7 +1842,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1854,7 +1853,7 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1865,7 +1864,7 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1876,7 +1875,7 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1887,7 +1886,7 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1898,7 +1897,7 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1909,7 +1908,7 @@
         <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1920,7 +1919,7 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1931,7 +1930,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1942,7 +1941,7 @@
         <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1953,7 +1952,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1964,7 +1963,7 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1975,7 +1974,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1986,7 +1985,7 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1997,7 +1996,7 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2008,7 +2007,7 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -2019,7 +2018,7 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -2030,7 +2029,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2041,7 +2040,7 @@
         <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -2052,7 +2051,7 @@
         <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -2063,7 +2062,7 @@
         <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2074,7 +2073,7 @@
         <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -2085,7 +2084,7 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -2096,7 +2095,7 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -2107,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -2118,7 +2117,7 @@
         <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2129,7 +2128,7 @@
         <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2140,7 +2139,7 @@
         <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2151,7 +2150,7 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2162,7 +2161,7 @@
         <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2184,16 +2183,16 @@
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2201,16 +2200,16 @@
         <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2218,16 +2217,16 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2235,16 +2234,16 @@
         <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="G63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2252,16 +2251,16 @@
         <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="G64" t="s">
+        <v>240</v>
+      </c>
+      <c r="H64" t="s">
         <v>241</v>
-      </c>
-      <c r="H64" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2269,7 +2268,7 @@
         <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2280,16 +2279,16 @@
         <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2297,16 +2296,16 @@
         <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2314,16 +2313,16 @@
         <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2331,16 +2330,16 @@
         <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2348,16 +2347,16 @@
         <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2365,16 +2364,16 @@
         <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2382,16 +2381,16 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2399,16 +2398,16 @@
         <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="G73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2416,16 +2415,16 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2433,16 +2432,16 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
       <c r="G75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2450,16 +2449,16 @@
         <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="G76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2467,16 +2466,16 @@
         <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
       <c r="G77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2484,16 +2483,16 @@
         <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C78">
         <v>77</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2501,16 +2500,16 @@
         <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C79">
         <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2518,16 +2517,16 @@
         <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C80">
         <v>79</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H80" s="3" t="s">
         <v>245</v>
+      </c>
+      <c r="H80" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2535,16 +2534,16 @@
         <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81">
         <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2552,16 +2551,16 @@
         <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C82">
         <v>81</v>
       </c>
       <c r="G82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2569,16 +2568,16 @@
         <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83">
         <v>82</v>
       </c>
       <c r="G83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2586,16 +2585,16 @@
         <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C84">
         <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,16 +2602,16 @@
         <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C85">
         <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2620,16 +2619,16 @@
         <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86">
         <v>85</v>
       </c>
       <c r="G86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -2637,16 +2636,16 @@
         <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87">
         <v>86</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2654,16 +2653,16 @@
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88">
         <v>87</v>
       </c>
       <c r="G88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2671,16 +2670,16 @@
         <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C89">
         <v>88</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2688,16 +2687,16 @@
         <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C90">
         <v>89</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2705,16 +2704,16 @@
         <v>138</v>
       </c>
       <c r="B91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91">
         <v>90</v>
       </c>
       <c r="G91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,16 +2721,16 @@
         <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92">
         <v>91</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -2739,16 +2738,16 @@
         <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93">
         <v>92</v>
       </c>
       <c r="G93" t="s">
+        <v>274</v>
+      </c>
+      <c r="H93" t="s">
         <v>275</v>
-      </c>
-      <c r="H93" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2756,16 +2755,16 @@
         <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94">
         <v>93</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H94" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -2773,16 +2772,16 @@
         <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C95">
         <v>94</v>
       </c>
       <c r="G95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -2790,13 +2789,13 @@
         <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C96">
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -2804,16 +2803,16 @@
         <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C97">
         <v>96</v>
       </c>
       <c r="G97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -2821,7 +2820,7 @@
         <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -2832,7 +2831,7 @@
         <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C99">
         <v>98</v>
